--- a/Original Excel Files/PA.xlsx
+++ b/Original Excel Files/PA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC52D70-EFC7-4D91-BC23-43D6FBBD7040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="30930" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -422,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -438,9 +439,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -453,6 +451,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,6 +479,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -510,7 +530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,9 +563,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,6 +615,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,11 +807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:I28"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -766,723 +820,733 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="26">
+        <v>1962</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="26">
+        <v>1973</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1951</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>102</v>
-      </c>
+      <c r="A17" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="26">
+        <v>1962</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="27">
+        <v>1947</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1947</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="26">
+        <v>2003</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="26">
+        <v>1943</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
+      <c r="A24" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="26">
+        <v>1973</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>15</v>
+      <c r="A25" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="26">
+        <v>1966</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1"/>
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A28" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="26">
+        <v>1979</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>36</v>
+      <c r="A29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1960</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A30" s="15"/>
+      <c r="A30" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="C30" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="26">
+        <v>1956</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A31" s="13" t="s">
-        <v>63</v>
+      <c r="A31" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="14">
-        <v>1962</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="16"/>
+      <c r="C31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1971</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A32" s="13" t="s">
-        <v>66</v>
+      <c r="A32" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="14">
-        <v>1973</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C32" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1985</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A35" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="14">
-        <v>1962</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1">
+      <c r="F34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="5">
+        <v>1964</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1">
       <c r="A36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="11">
-        <v>1947</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1947</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A39" s="13" t="s">
-        <v>73</v>
+        <v>7</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="27">
+        <v>1964</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="27">
+        <v>1957</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="5">
+        <v>1957</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A39" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="14">
-        <v>2003</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A40" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1943</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A41" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="14">
-        <v>1973</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A42" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="14">
-        <v>1966</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A43" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="14">
-        <v>1979</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A44" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="14">
-        <v>1960</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A45" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="14">
-        <v>1956</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="14">
-        <v>1971</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A47" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="14">
-        <v>1985</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="12"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="C39" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1951</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A47" s="19"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="12"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="5">
-        <v>1964</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A51" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="11">
-        <v>1964</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A51" s="21"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="11">
-        <v>1957</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="A52" s="21"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="5">
-        <v>1957</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A53" s="11"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I53">
+    <sortCondition ref="A1:A53"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1494,7 +1558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
